--- a/content/species/data/sp_am_table4.xlsx
+++ b/content/species/data/sp_am_table4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeann\OneDrive\Documents\Anura Africa\Projects\Red List\NBA 2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\species\quarto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1068F9-C75B-4C48-9F4B-C6B755CD81F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA2FEAD-6506-48F7-927B-998BFA9E93A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{64E5FB14-C814-4E5F-A3C1-6F2E195E99E3}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{64E5FB14-C814-4E5F-A3C1-6F2E195E99E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,160 +36,180 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
-  <si>
-    <t>Focal species</t>
-  </si>
-  <si>
-    <t>Organisation</t>
-  </si>
-  <si>
-    <t>Province(s)</t>
-  </si>
-  <si>
-    <t>Conservation Action</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>Get involved</t>
-  </si>
-  <si>
-    <t>Amathole Toad</t>
-  </si>
-  <si>
-    <t>EWT</t>
-  </si>
-  <si>
-    <t>EC</t>
-  </si>
-  <si>
-    <t>Habitat protection and management</t>
-  </si>
-  <si>
-    <t>joshuaw@ewt.org.za</t>
-  </si>
-  <si>
-    <t>https://ewt.org/</t>
-  </si>
-  <si>
-    <t>Bilbo's Rain Frog</t>
-  </si>
-  <si>
-    <t>Anura Africa/NWU</t>
-  </si>
-  <si>
-    <t>KZN</t>
-  </si>
-  <si>
-    <t>Research on distribution, genetics and stakeholder engagement</t>
-  </si>
-  <si>
-    <t>jeanne@anuraafrica.org</t>
-  </si>
-  <si>
-    <t>https://www.anuraafrica.org/</t>
-  </si>
-  <si>
-    <t>Kloof Frog</t>
-  </si>
-  <si>
-    <t>Anura Africa/NWU/Ezemvelo KZN Wildlife/EWT</t>
-  </si>
-  <si>
-    <t>Long-term monitoring; Research on ecology; water quality indicator</t>
-  </si>
-  <si>
-    <t>Long-toed Tree Frog</t>
-  </si>
-  <si>
-    <t>Anura Africa/Ezemvelo KZN Wildlife/NWU</t>
-  </si>
-  <si>
-    <t>Building conservation evidence and population data using monitoring to inform habitat protection and management</t>
-  </si>
-  <si>
-    <t>Micro Frog</t>
-  </si>
-  <si>
-    <t>Anura Africa/Grootbos Foundation/EWT</t>
-  </si>
-  <si>
-    <t>WC</t>
-  </si>
-  <si>
-    <t>Using bioacoustics to inform conservation management</t>
-  </si>
-  <si>
-    <t>keir@anuraafrica.org</t>
-  </si>
-  <si>
-    <t>Moonlight Mountain Toadlet</t>
-  </si>
-  <si>
-    <t>Moss frogs (multiple species)</t>
-  </si>
-  <si>
-    <t>CapeNature</t>
-  </si>
-  <si>
-    <t>Long-term monitoring</t>
-  </si>
-  <si>
-    <t>aaturner@capenature.co.za</t>
-  </si>
-  <si>
-    <t>Pickersgill's Reed Frog</t>
-  </si>
-  <si>
-    <t>Ezemvelo KZN Wildlife/Anura Africa/EWT</t>
-  </si>
-  <si>
-    <t>Implementation of actions through a coordinated  Biodiversity Management Plan</t>
-  </si>
-  <si>
-    <t>Rose's Mountain Toadlet</t>
-  </si>
-  <si>
-    <t>EWT/UCT/SANBI</t>
-  </si>
-  <si>
-    <t>Improved management through stakeholder collaboration</t>
-  </si>
-  <si>
-    <t>Rough Moss Frog</t>
-  </si>
-  <si>
-    <t>EWT/CapeNature/Fynbos Trust</t>
-  </si>
-  <si>
-    <t>Table Mountain Ghost Frog</t>
-  </si>
-  <si>
-    <t>EWT/SANBI</t>
-  </si>
-  <si>
-    <t>Western Leopard Toad</t>
-  </si>
-  <si>
-    <t>SANBI/City of CT/EWT/Volunteer organisations/NatureConnect</t>
-  </si>
-  <si>
-    <t>Genetic studies, road ecology, threat mitigation</t>
-  </si>
-  <si>
-    <t>j.dasilva@sanbi.org.za</t>
-  </si>
-  <si>
-    <t>https://natureconnect.earth/nature-care-fund/species-conservation/</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+  <si>
+    <t>Contributor</t>
+  </si>
+  <si>
+    <t>Author affiliation/s</t>
+  </si>
+  <si>
+    <t>ORCID number</t>
+  </si>
+  <si>
+    <t>Oliver Angus</t>
+  </si>
+  <si>
+    <t>Endangered Wildlife Trust (at the time of assessments)</t>
+  </si>
+  <si>
+    <t>0000-0002-9791-9480</t>
+  </si>
+  <si>
+    <t>Adrian John Armstrong</t>
+  </si>
+  <si>
+    <t>Ezemvelo KZN Wildlife</t>
+  </si>
+  <si>
+    <t>0000-0002-6015-9019</t>
+  </si>
+  <si>
+    <t>Ninda Baptista</t>
+  </si>
+  <si>
+    <r>
+      <t>Universidade do Porto, Portuga</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>l</t>
+    </r>
+  </si>
+  <si>
+    <t>Francois Stephanus Becker</t>
+  </si>
+  <si>
+    <t>Gobabeb Research and Training Centre, National Museum of Namibia, University of Cape Town, University of the Witwatersrand</t>
+  </si>
+  <si>
+    <t>0000-0003-3874-9183</t>
+  </si>
+  <si>
+    <t>Werner Conradie</t>
+  </si>
+  <si>
+    <t>Port Elizabeth Museum</t>
+  </si>
+  <si>
+    <t>0000-0003-0805-9683</t>
+  </si>
+  <si>
+    <t>Louis Heyns Du Preez</t>
+  </si>
+  <si>
+    <t>North-West University</t>
+  </si>
+  <si>
+    <t>0000-0002-3332-6053</t>
+  </si>
+  <si>
+    <t>James Harvey</t>
+  </si>
+  <si>
+    <t>Harvey Ecological</t>
+  </si>
+  <si>
+    <t>Adriaan Jordaan</t>
+  </si>
+  <si>
+    <t>University of the Western Cape, Iziko South African Museum</t>
+  </si>
+  <si>
+    <t>0000-0002-0772-0305</t>
+  </si>
+  <si>
+    <t>Keir Lynch</t>
+  </si>
+  <si>
+    <t>Anura Africa;Bionerds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000-0001-6418-2307 </t>
+  </si>
+  <si>
+    <t>John Measey</t>
+  </si>
+  <si>
+    <t>Centre for Invasion Biology, Stellenbosch University</t>
+  </si>
+  <si>
+    <t>0000-0001-9939-7615</t>
+  </si>
+  <si>
+    <t>Mohlamatsane Mokhatla</t>
+  </si>
+  <si>
+    <t>University of Pretoria</t>
+  </si>
+  <si>
+    <t>0000-0001-8090-4592</t>
+  </si>
+  <si>
+    <t>Nieto Lawrence, J. A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anura Africa; University of Johannesburg </t>
+  </si>
+  <si>
+    <t>0000-0002-5982-5803</t>
+  </si>
+  <si>
+    <t>Fortunate Mafeta Phaka</t>
+  </si>
+  <si>
+    <t>0000-0003-1833-3156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darren Pietersen </t>
+  </si>
+  <si>
+    <t>Endangered Wildlife Trust</t>
+  </si>
+  <si>
+    <t>0000-0002-7592-8319</t>
+  </si>
+  <si>
+    <t>Krystal A. Tolley</t>
+  </si>
+  <si>
+    <t>South African National Biodiversity Institute</t>
+  </si>
+  <si>
+    <t>0000-0002-7778-1963</t>
+  </si>
+  <si>
+    <t>Andrew Turner</t>
+  </si>
+  <si>
+    <t>Cape Nature</t>
+  </si>
+  <si>
+    <t>0000-0003-1004-5723</t>
+  </si>
+  <si>
+    <t>Luke Verburgt</t>
+  </si>
+  <si>
+    <t>Enviro Insight</t>
+  </si>
+  <si>
+    <t>Che Weldon</t>
+  </si>
+  <si>
+    <t>0000-0001-6716-0787</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +233,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -222,7 +260,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -230,15 +268,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -574,296 +682,246 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD94324-664B-41CA-A2E9-C86BB9038F0D}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="B8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="B11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="C11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="C12" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="B15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
+      <c r="C16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="31.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="C17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F13" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="5" t="s">
         <v>48</v>
       </c>
+      <c r="B18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E13">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D13">
     <sortCondition ref="A1:A13"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{FEE76771-7446-4FD1-BB9E-730D45BC01E3}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{D17EBDBD-0AA0-4B76-A859-549BCD4848C6}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{B548963B-3D2A-4599-B34A-D2D4AD2C44DE}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{893D98C1-672A-47EB-BA02-1F7E01874B82}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{E6241BC4-2E3D-4406-A84F-FDDC09515F82}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{97D7BDC5-BE5A-49D1-87D6-5ECCC0CAD073}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{44908DF8-E5C6-4DDC-BF1D-88680B83C30A}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{3B0855B5-A14E-47C5-94BC-C9B8A56CA2C6}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{85EFBEEF-8A9A-4C0A-BCB6-8E43973BF026}"/>
-    <hyperlink ref="E11" r:id="rId10" xr:uid="{8D09FC07-98BB-4FBC-AFCA-F22C1F586D7B}"/>
-    <hyperlink ref="E12" r:id="rId11" xr:uid="{747AA4BD-0613-4E7F-91DA-6531586BCB11}"/>
-    <hyperlink ref="E13" r:id="rId12" xr:uid="{1FA36385-2876-403C-B33C-52CA3E1D5E9B}"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://orcid.org/0000-0002-9791-9480" xr:uid="{47B22B4B-2E9F-4407-85EF-6BAFB807E1FC}"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://orcid.org/0000-0002-6015-9019" xr:uid="{A2C9A36F-27DE-428D-87F4-213B6317E554}"/>
+    <hyperlink ref="C5" r:id="rId3" display="https://orcid.org/0000-0003-3874-9183" xr:uid="{C55BBD7B-B635-4782-A1A8-62ED9B8F0DCD}"/>
+    <hyperlink ref="C6" r:id="rId4" display="https://orcid.org/0000-0003-0805-9683" xr:uid="{EEF40C1E-AF14-4210-8B0C-6F1787EAD7D3}"/>
+    <hyperlink ref="C7" r:id="rId5" display="https://orcid.org/0000-0002-3332-6053" xr:uid="{8A3CA748-388F-463A-AF7D-D1CBCE02B307}"/>
+    <hyperlink ref="C9" r:id="rId6" display="https://orcid.org/0000-0002-0772-0305" xr:uid="{8E145B94-D3D6-444B-97C8-2A248B429BA6}"/>
+    <hyperlink ref="C11" r:id="rId7" display="https://orcid.org/0000-0001-9939-7615" xr:uid="{6805CF13-23AE-451A-8A8D-64ED42482CC3}"/>
+    <hyperlink ref="C12" r:id="rId8" display="https://orcid.org/0000-0001-8090-4592" xr:uid="{8291E4F0-2E00-46BA-8361-EBD8C5E651A3}"/>
+    <hyperlink ref="C14" r:id="rId9" display="https://orcid.org/0000-0003-1833-3156" xr:uid="{EDBEA123-533E-4A60-A320-BFB33FD90D05}"/>
+    <hyperlink ref="C15" r:id="rId10" display="https://orcid.org/0000-0002-7592-8319" xr:uid="{CF1B4960-5F51-4ACB-A5C1-DE19C3540C5F}"/>
+    <hyperlink ref="C16" r:id="rId11" display="https://orcid.org/0000-0002-7778-1963" xr:uid="{A1DC0E73-5DF3-4CBF-8275-92CFB4BB1D4C}"/>
+    <hyperlink ref="C19" r:id="rId12" display="https://orcid.org/0000-0001-6716-0787" xr:uid="{313A7A40-4B6C-4B0F-8515-E6AAC83C3D24}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId13"/>
@@ -871,15 +929,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A9251B87A2689245AA9FD86C69F20C58" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3a4ec884e7468e8b6decba7ff9ee350d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="de6781d5-cbdf-44cc-b8b1-919d4413b058" xmlns:ns3="d08e37f2-beba-4595-a3e8-aa91f032b3fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b02cf9d369237c4b82eaa1e33230624f" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1151,7 +1200,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="d08e37f2-beba-4595-a3e8-aa91f032b3fc" xsi:nil="true"/>
@@ -1164,14 +1213,51 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBA2959F-EAAC-4373-8B13-068772D02406}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4545F8C6-96C6-4377-8B9C-D21D6C021194}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="de6781d5-cbdf-44cc-b8b1-919d4413b058"/>
+    <ds:schemaRef ds:uri="d08e37f2-beba-4595-a3e8-aa91f032b3fc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4545F8C6-96C6-4377-8B9C-D21D6C021194}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63B5241A-882C-44BB-AE0B-20E2D78EE81C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d08e37f2-beba-4595-a3e8-aa91f032b3fc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="de6781d5-cbdf-44cc-b8b1-919d4413b058"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63B5241A-882C-44BB-AE0B-20E2D78EE81C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBA2959F-EAAC-4373-8B13-068772D02406}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/content/species/data/sp_am_table4.xlsx
+++ b/content/species/data/sp_am_table4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\species\quarto\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_repos\species\quarto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA2FEAD-6506-48F7-927B-998BFA9E93A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AA9154-E7BF-4F98-A006-60E8159F39E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{64E5FB14-C814-4E5F-A3C1-6F2E195E99E3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{64E5FB14-C814-4E5F-A3C1-6F2E195E99E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,33 +36,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Contributor</t>
   </si>
   <si>
-    <t>Author affiliation/s</t>
-  </si>
-  <si>
-    <t>ORCID number</t>
-  </si>
-  <si>
     <t>Oliver Angus</t>
   </si>
   <si>
     <t>Endangered Wildlife Trust (at the time of assessments)</t>
   </si>
   <si>
-    <t>0000-0002-9791-9480</t>
-  </si>
-  <si>
     <t>Adrian John Armstrong</t>
   </si>
   <si>
     <t>Ezemvelo KZN Wildlife</t>
-  </si>
-  <si>
-    <t>0000-0002-6015-9019</t>
   </si>
   <si>
     <t>Ninda Baptista</t>
@@ -88,27 +76,18 @@
     <t>Gobabeb Research and Training Centre, National Museum of Namibia, University of Cape Town, University of the Witwatersrand</t>
   </si>
   <si>
-    <t>0000-0003-3874-9183</t>
-  </si>
-  <si>
     <t>Werner Conradie</t>
   </si>
   <si>
     <t>Port Elizabeth Museum</t>
   </si>
   <si>
-    <t>0000-0003-0805-9683</t>
-  </si>
-  <si>
     <t>Louis Heyns Du Preez</t>
   </si>
   <si>
     <t>North-West University</t>
   </si>
   <si>
-    <t>0000-0002-3332-6053</t>
-  </si>
-  <si>
     <t>James Harvey</t>
   </si>
   <si>
@@ -121,78 +100,51 @@
     <t>University of the Western Cape, Iziko South African Museum</t>
   </si>
   <si>
-    <t>0000-0002-0772-0305</t>
-  </si>
-  <si>
     <t>Keir Lynch</t>
   </si>
   <si>
     <t>Anura Africa;Bionerds</t>
   </si>
   <si>
-    <t xml:space="preserve">0000-0001-6418-2307 </t>
-  </si>
-  <si>
     <t>John Measey</t>
   </si>
   <si>
     <t>Centre for Invasion Biology, Stellenbosch University</t>
   </si>
   <si>
-    <t>0000-0001-9939-7615</t>
-  </si>
-  <si>
     <t>Mohlamatsane Mokhatla</t>
   </si>
   <si>
     <t>University of Pretoria</t>
   </si>
   <si>
-    <t>0000-0001-8090-4592</t>
-  </si>
-  <si>
     <t>Nieto Lawrence, J. A.</t>
   </si>
   <si>
     <t xml:space="preserve">Anura Africa; University of Johannesburg </t>
   </si>
   <si>
-    <t>0000-0002-5982-5803</t>
-  </si>
-  <si>
     <t>Fortunate Mafeta Phaka</t>
   </si>
   <si>
-    <t>0000-0003-1833-3156</t>
-  </si>
-  <si>
     <t xml:space="preserve">Darren Pietersen </t>
   </si>
   <si>
     <t>Endangered Wildlife Trust</t>
   </si>
   <si>
-    <t>0000-0002-7592-8319</t>
-  </si>
-  <si>
     <t>Krystal A. Tolley</t>
   </si>
   <si>
     <t>South African National Biodiversity Institute</t>
   </si>
   <si>
-    <t>0000-0002-7778-1963</t>
-  </si>
-  <si>
     <t>Andrew Turner</t>
   </si>
   <si>
     <t>Cape Nature</t>
   </si>
   <si>
-    <t>0000-0003-1004-5723</t>
-  </si>
-  <si>
     <t>Luke Verburgt</t>
   </si>
   <si>
@@ -202,14 +154,20 @@
     <t>Che Weldon</t>
   </si>
   <si>
-    <t>0000-0001-6716-0787</t>
+    <t>Affiliation</t>
+  </si>
+  <si>
+    <t>Anisha Dayaram</t>
+  </si>
+  <si>
+    <t>Carol Poole</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,14 +184,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos"/>
@@ -245,12 +195,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -260,7 +204,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -320,36 +264,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -682,249 +638,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD94324-664B-41CA-A2E9-C86BB9038F0D}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:H1048576"/>
+      <selection pane="bottomLeft" sqref="A1:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.26171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.41796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.26171875" customWidth="1"/>
+    <col min="1" max="1" width="24.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="5" t="s">
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="72.3" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="31.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>51</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D13">
-    <sortCondition ref="A1:A13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B21">
+    <sortCondition ref="A2:A21"/>
   </sortState>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://orcid.org/0000-0002-9791-9480" xr:uid="{47B22B4B-2E9F-4407-85EF-6BAFB807E1FC}"/>
-    <hyperlink ref="C3" r:id="rId2" display="https://orcid.org/0000-0002-6015-9019" xr:uid="{A2C9A36F-27DE-428D-87F4-213B6317E554}"/>
-    <hyperlink ref="C5" r:id="rId3" display="https://orcid.org/0000-0003-3874-9183" xr:uid="{C55BBD7B-B635-4782-A1A8-62ED9B8F0DCD}"/>
-    <hyperlink ref="C6" r:id="rId4" display="https://orcid.org/0000-0003-0805-9683" xr:uid="{EEF40C1E-AF14-4210-8B0C-6F1787EAD7D3}"/>
-    <hyperlink ref="C7" r:id="rId5" display="https://orcid.org/0000-0002-3332-6053" xr:uid="{8A3CA748-388F-463A-AF7D-D1CBCE02B307}"/>
-    <hyperlink ref="C9" r:id="rId6" display="https://orcid.org/0000-0002-0772-0305" xr:uid="{8E145B94-D3D6-444B-97C8-2A248B429BA6}"/>
-    <hyperlink ref="C11" r:id="rId7" display="https://orcid.org/0000-0001-9939-7615" xr:uid="{6805CF13-23AE-451A-8A8D-64ED42482CC3}"/>
-    <hyperlink ref="C12" r:id="rId8" display="https://orcid.org/0000-0001-8090-4592" xr:uid="{8291E4F0-2E00-46BA-8361-EBD8C5E651A3}"/>
-    <hyperlink ref="C14" r:id="rId9" display="https://orcid.org/0000-0003-1833-3156" xr:uid="{EDBEA123-533E-4A60-A320-BFB33FD90D05}"/>
-    <hyperlink ref="C15" r:id="rId10" display="https://orcid.org/0000-0002-7592-8319" xr:uid="{CF1B4960-5F51-4ACB-A5C1-DE19C3540C5F}"/>
-    <hyperlink ref="C16" r:id="rId11" display="https://orcid.org/0000-0002-7778-1963" xr:uid="{A1DC0E73-5DF3-4CBF-8275-92CFB4BB1D4C}"/>
-    <hyperlink ref="C19" r:id="rId12" display="https://orcid.org/0000-0001-6716-0787" xr:uid="{313A7A40-4B6C-4B0F-8515-E6AAC83C3D24}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
